--- a/data/processed/processed_market_data.xlsx
+++ b/data/processed/processed_market_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2893"/>
+  <dimension ref="A1:L2896"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65291,11 +65291,75 @@
       <c r="F2893" t="inlineStr"/>
       <c r="G2893" t="inlineStr"/>
       <c r="H2893" t="inlineStr"/>
-      <c r="I2893" t="inlineStr"/>
-      <c r="J2893" t="inlineStr"/>
+      <c r="I2893" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="J2893" t="n">
+        <v>15.41</v>
+      </c>
       <c r="K2893" t="inlineStr"/>
       <c r="L2893" t="n">
         <v>23578.130859375</v>
+      </c>
+    </row>
+    <row r="2894">
+      <c r="A2894" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="B2894" t="inlineStr"/>
+      <c r="C2894" t="inlineStr"/>
+      <c r="D2894" t="inlineStr"/>
+      <c r="E2894" t="inlineStr"/>
+      <c r="F2894" t="inlineStr"/>
+      <c r="G2894" t="inlineStr"/>
+      <c r="H2894" t="inlineStr"/>
+      <c r="I2894" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="J2894" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="K2894" t="inlineStr"/>
+      <c r="L2894" t="n">
+        <v>23545.900390625</v>
+      </c>
+    </row>
+    <row r="2895">
+      <c r="A2895" s="2" t="n">
+        <v>46000</v>
+      </c>
+      <c r="B2895" t="inlineStr"/>
+      <c r="C2895" t="inlineStr"/>
+      <c r="D2895" t="inlineStr"/>
+      <c r="E2895" t="inlineStr"/>
+      <c r="F2895" t="inlineStr"/>
+      <c r="G2895" t="inlineStr"/>
+      <c r="H2895" t="inlineStr"/>
+      <c r="I2895" t="inlineStr"/>
+      <c r="J2895" t="n">
+        <v>16.93</v>
+      </c>
+      <c r="K2895" t="inlineStr"/>
+      <c r="L2895" t="n">
+        <v>23576.490234375</v>
+      </c>
+    </row>
+    <row r="2896">
+      <c r="A2896" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B2896" t="inlineStr"/>
+      <c r="C2896" t="inlineStr"/>
+      <c r="D2896" t="inlineStr"/>
+      <c r="E2896" t="inlineStr"/>
+      <c r="F2896" t="inlineStr"/>
+      <c r="G2896" t="inlineStr"/>
+      <c r="H2896" t="inlineStr"/>
+      <c r="I2896" t="inlineStr"/>
+      <c r="J2896" t="inlineStr"/>
+      <c r="K2896" t="inlineStr"/>
+      <c r="L2896" t="n">
+        <v>23491.4375</v>
       </c>
     </row>
   </sheetData>
